--- a/Model Testing.xlsx
+++ b/Model Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HW &amp; Project\EY Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\ey_challenge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226FE5BD-871E-4E52-9FE4-B4CD68832FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78F94F-31C8-40B7-9CAD-2440E57F2EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C8082AA6-3B75-49AA-83B6-198C30EC3D85}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{C8082AA6-3B75-49AA-83B6-198C30EC3D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>Model</t>
   </si>
@@ -178,6 +200,34 @@
   </si>
   <si>
     <t>red, blue, green, nir08, swir16, swir22, coastal, lwir11, building_height, building_sd, building_year, building_area, street_width, street_lane, CO_column_number_density, tropospheric_HCHO_column_number_density, HCHO_slant_column_number_density, NO2_column_number_density, tropospheric_NO2_column_number_density, stratospheric_NO2_column_number_density, NO2_slant_column_number_density, O3_column_number_density, O3_slant_column_number_density, SO2_column_number_density, SO2_slant_column_number_density, Optical_Depth_047, Optical_Depth_055, AOD_Uncertainty, FineModeFraction, Column_WV, Injection_Height, AOD_QA, AngstromExp_470-780, ndvi, evi, savi, gndvi, arvi, msavi, ndwi, mndwi, awei_nsh, awei_sh, ndsi, nbr, si, ndbi, ui, ibi, albedo, VAR, Building_area_per_pixel, street_traffic, street_orientation</t>
+  </si>
+  <si>
+    <t>Three staged XGB</t>
+  </si>
+  <si>
+    <t>col_prefix = ['canopy', 
+              'landsat_8_albedo', 'landsat_8_awei', 'lwir', 'landsat_8_ibi', 
+              'landsat_8_arvi', 
+              'landsat_8_ndbi', 
+              'landsat_8_ndwi', 'landsat_8_si', 'landsat_8_ui']
+col_suffix = ['mean_51x51', 'std_dev_51x51', 'contrast_51x51', 'energy_51x51',
+              'mean_25x25', 'std_dev_25x25', 'contrast_25x25', 'energy_25x25',
+              'mean_9x9', 'std_dev_9x9', 'contrast_9x9', 'energy_9x9',
+              ]
+numerical_cols = [col for col in data.columns 
+        if any(col.startswith(prefix) for prefix in col_prefix)
+        and any(col.endswith(suffix) for suffix in col_suffix)
+        ]
+others = ['building_height_res100', 'building_height_std_res100', 'building_year_res100', 'var_res100', 'population_res1000',
+          ]
+numerical_cols = numerical_cols + others
+categorical_cols = [
+ 'street_orientation_res100',
+ ]</t>
+  </si>
+  <si>
+    <t>n_estimators=2000, learning_rate=0.005, max_depth=10, min_child_weight=4, 
+                        colsample_bytree=0.6, subsample=0.8, random_state=42</t>
   </si>
 </sst>
 </file>
@@ -321,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +409,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -374,17 +427,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,14 +462,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>91452</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2968055</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2213610</xdr:rowOff>
+      <xdr:colOff>2972817</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2218372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -453,14 +506,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>119679</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>170138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2967410</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2282637</xdr:rowOff>
+      <xdr:colOff>2972172</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2287399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -497,14 +550,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>4032</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>2281630</xdr:rowOff>
+      <xdr:colOff>8794</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2286392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -541,13 +594,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>97015</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>114652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2936874</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>2941636</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2211597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -585,14 +638,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>61452</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>122904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2319986</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2324748</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,14 +682,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>118753</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>71178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2968214</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2168781</xdr:rowOff>
+      <xdr:colOff>2972976</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2173543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -673,13 +726,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>136073</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>52335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>2914443</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>2103874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -717,14 +770,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>58318</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>388775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>2993628</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2556198</xdr:rowOff>
+      <xdr:colOff>2998390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2465710</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -760,10 +813,74 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +918,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -907,7 +1024,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +1166,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,114 +1174,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CB1959-723C-4358-8774-87636E28316F}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="59.86328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" style="5" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="45.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.59765625" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="45.1328125" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="18" t="s">
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+    <row r="5" spans="1:13" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1183,10 +1300,10 @@
       <c r="K5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="L5" s="21"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1223,52 +1340,44 @@
       <c r="L6" s="9"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="333" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="9">
-        <v>0.98968278632662299</v>
+        <v>0.99270000000000003</v>
       </c>
       <c r="G7" s="9">
-        <v>0.86762400735739797</v>
+        <v>0.96279999999999999</v>
       </c>
       <c r="H7" s="9">
-        <v>0.91110000000000002</v>
-      </c>
-      <c r="I7" s="11">
-        <v>10</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0.852705502921421</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1.31095764115811E-2</v>
-      </c>
-      <c r="L7" s="9"/>
+        <v>0.9657</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="208.15" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>34</v>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>22</v>
@@ -1277,35 +1386,35 @@
         <v>11</v>
       </c>
       <c r="F8" s="9">
-        <v>0.98962408392078105</v>
+        <v>0.98968278632662299</v>
       </c>
       <c r="G8" s="9">
-        <v>0.85607289512622997</v>
+        <v>0.86762400735739797</v>
       </c>
       <c r="H8" s="9">
-        <v>0.9022</v>
+        <v>0.91110000000000002</v>
       </c>
       <c r="I8" s="11">
         <v>10</v>
       </c>
       <c r="J8" s="9">
-        <v>0.84993331726372701</v>
+        <v>0.852705502921421</v>
       </c>
       <c r="K8" s="9">
-        <v>1.10782260212494E-2</v>
+        <v>1.31095764115811E-2</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
+      <c r="B9" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>22</v>
@@ -1313,25 +1422,33 @@
       <c r="E9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="9">
+        <v>0.98962408392078105</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.85607289512622997</v>
+      </c>
       <c r="H9" s="9">
-        <v>0.94920000000000004</v>
+        <v>0.9022</v>
       </c>
       <c r="I9" s="11">
         <v>10</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="9">
+        <v>0.84993331726372701</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.10782260212494E-2</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>32</v>
@@ -1342,36 +1459,28 @@
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9">
-        <v>0.992091999828142</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0.93139253845899905</v>
-      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9">
-        <v>0.94450000000000001</v>
+        <v>0.94920000000000004</v>
       </c>
       <c r="I10" s="11">
         <v>10</v>
       </c>
-      <c r="J10" s="9">
-        <v>0.92524679921098596</v>
-      </c>
-      <c r="K10" s="9">
-        <v>5.6285954094372698E-3</v>
-      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="180" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>22</v>
@@ -1380,35 +1489,35 @@
         <v>11</v>
       </c>
       <c r="F11" s="9">
-        <v>0.99232448112168203</v>
+        <v>0.992091999828142</v>
       </c>
       <c r="G11" s="9">
-        <v>0.92832301448943</v>
+        <v>0.93139253845899905</v>
       </c>
       <c r="H11" s="9">
-        <v>0.94079999999999997</v>
+        <v>0.94450000000000001</v>
       </c>
       <c r="I11" s="11">
         <v>10</v>
       </c>
       <c r="J11" s="9">
-        <v>0.92165915524502295</v>
+        <v>0.92524679921098596</v>
       </c>
       <c r="K11" s="9">
-        <v>5.5611245617429098E-3</v>
+        <v>5.6285954094372698E-3</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>22</v>
@@ -1417,35 +1526,35 @@
         <v>11</v>
       </c>
       <c r="F12" s="9">
-        <v>0.99185419042193601</v>
+        <v>0.99232448112168203</v>
       </c>
       <c r="G12" s="9">
-        <v>0.92483528590501096</v>
+        <v>0.92832301448943</v>
       </c>
       <c r="H12" s="9">
-        <v>0.94279999999999997</v>
+        <v>0.94079999999999997</v>
       </c>
       <c r="I12" s="11">
         <v>10</v>
       </c>
       <c r="J12" s="9">
-        <v>0.91619181334742605</v>
+        <v>0.92165915524502295</v>
       </c>
       <c r="K12" s="9">
-        <v>8.7311033909532303E-3</v>
+        <v>5.5611245617429098E-3</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>22</v>
@@ -1454,35 +1563,35 @@
         <v>11</v>
       </c>
       <c r="F13" s="9">
-        <v>0.989650417828291</v>
+        <v>0.99185419042193601</v>
       </c>
       <c r="G13" s="9">
-        <v>0.69189303873043895</v>
+        <v>0.92483528590501096</v>
       </c>
       <c r="H13" s="9">
-        <v>0.81689999999999996</v>
+        <v>0.94279999999999997</v>
       </c>
       <c r="I13" s="11">
         <v>10</v>
       </c>
       <c r="J13" s="9">
-        <v>0.67117791919744796</v>
+        <v>0.91619181334742605</v>
       </c>
       <c r="K13" s="9">
-        <v>3.5492899330322299E-2</v>
+        <v>8.7311033909532303E-3</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="97.15" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>22</v>
@@ -1491,35 +1600,35 @@
         <v>11</v>
       </c>
       <c r="F14" s="9">
-        <v>0.99489681295539301</v>
+        <v>0.989650417828291</v>
       </c>
       <c r="G14" s="9">
-        <v>0.95282816607184995</v>
+        <v>0.69189303873043895</v>
       </c>
       <c r="H14" s="9">
-        <v>0.95740000000000003</v>
+        <v>0.81689999999999996</v>
       </c>
       <c r="I14" s="11">
         <v>10</v>
       </c>
       <c r="J14" s="9">
-        <v>0.94965354707333105</v>
+        <v>0.67117791919744796</v>
       </c>
       <c r="K14" s="9">
-        <v>4.86755302497178E-3</v>
+        <v>3.5492899330322299E-2</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="180.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>22</v>
@@ -1528,103 +1637,103 @@
         <v>11</v>
       </c>
       <c r="F15" s="9">
-        <v>0.98903430458058195</v>
+        <v>0.99489681295539301</v>
       </c>
       <c r="G15" s="9">
-        <v>0.75050102633974702</v>
+        <v>0.95282816607184995</v>
       </c>
       <c r="H15" s="9">
-        <v>0.81279999999999997</v>
+        <v>0.95740000000000003</v>
       </c>
       <c r="I15" s="11">
         <v>10</v>
       </c>
       <c r="J15" s="9">
-        <v>0.74174182578039405</v>
+        <v>0.94965354707333105</v>
       </c>
       <c r="K15" s="9">
-        <v>2.55164096632081E-2</v>
+        <v>4.86755302497178E-3</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>20</v>
+      <c r="D16" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="9">
-        <v>0.98171243924423701</v>
+        <v>0.98903430458058195</v>
       </c>
       <c r="G16" s="9">
-        <v>0.68237928348567101</v>
+        <v>0.75050102633974702</v>
       </c>
       <c r="H16" s="9">
-        <v>0.80530000000000002</v>
+        <v>0.81279999999999997</v>
       </c>
       <c r="I16" s="11">
         <v>10</v>
       </c>
       <c r="J16" s="9">
-        <v>0.66955346609089905</v>
+        <v>0.74174182578039405</v>
       </c>
       <c r="K16" s="9">
-        <v>2.8153917672582501E-2</v>
+        <v>2.55164096632081E-2</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>18</v>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="9">
-        <v>0.94660145044326705</v>
+        <v>0.98171243924423701</v>
       </c>
       <c r="G17" s="9">
-        <v>0.62897658348083496</v>
+        <v>0.68237928348567101</v>
       </c>
       <c r="H17" s="9">
-        <v>0.76290000000000002</v>
+        <v>0.80530000000000002</v>
       </c>
       <c r="I17" s="11">
         <v>10</v>
       </c>
       <c r="J17" s="9">
-        <v>0.62226262699824897</v>
+        <v>0.66955346609089905</v>
       </c>
       <c r="K17" s="9">
-        <v>4.1879848193164898E-2</v>
+        <v>2.8153917672582501E-2</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>27</v>
@@ -1639,35 +1748,64 @@
         <v>11</v>
       </c>
       <c r="F18" s="9">
-        <v>0.72700712249002797</v>
+        <v>0.94660145044326705</v>
       </c>
       <c r="G18" s="9">
-        <v>0.49984256791697201</v>
+        <v>0.62897658348083496</v>
       </c>
       <c r="H18" s="9">
-        <v>0.5796</v>
+        <v>0.76290000000000002</v>
       </c>
       <c r="I18" s="11">
         <v>10</v>
       </c>
       <c r="J18" s="9">
-        <v>0.51404778417074404</v>
+        <v>0.62226262699824897</v>
       </c>
       <c r="K18" s="9">
-        <v>3.0242171813757501E-2</v>
+        <v>4.1879848193164898E-2</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="55.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.72700712249002797</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.49984256791697201</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.5796</v>
+      </c>
+      <c r="I19" s="11">
+        <v>10</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.51404778417074404</v>
+      </c>
+      <c r="K19" s="9">
+        <v>3.0242171813757501E-2</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1675,7 +1813,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1683,7 +1821,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1691,7 +1829,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1699,7 +1837,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1707,7 +1845,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1715,7 +1853,7 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1723,7 +1861,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -1731,7 +1869,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -1739,7 +1877,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -1747,7 +1885,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -1755,7 +1893,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1763,7 +1901,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1771,7 +1909,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1779,7 +1917,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1787,7 +1925,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1795,7 +1933,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1803,7 +1941,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1811,7 +1949,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1819,7 +1957,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1827,7 +1965,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1835,7 +1973,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1843,13 +1981,21 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="6:12" x14ac:dyDescent="0.45">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
